--- a/results/mp/deberta/corona/confidence/84/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -118,16 +118,16 @@
     <t>join</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>safety</t>
@@ -1323,25 +1323,25 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6965811965811965</v>
+        <v>0.6820083682008368</v>
       </c>
       <c r="L20">
         <v>163</v>
       </c>
       <c r="M20">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N20">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1375,13 +1375,13 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6165644171779141</v>
+        <v>0.6119402985074627</v>
       </c>
       <c r="L22">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="N22">
         <v>0.93</v>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>125</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1401,25 +1401,25 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6119402985074627</v>
+        <v>0.5973684210526315</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="N23">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1427,25 +1427,25 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5973684210526315</v>
+        <v>0.59375</v>
       </c>
       <c r="L24">
-        <v>227</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>153</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1453,25 +1453,25 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.59375</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="10:17">
